--- a/Datasets/Firmenich/Data/Firm_Oldenburg_neue_IDs.xlsx
+++ b/Datasets/Firmenich/Data/Firm_Oldenburg_neue_IDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22335" windowHeight="11985"/>
+    <workbookView windowWidth="28125" windowHeight="14295"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsblatt1" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,12 +162,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -176,9 +197,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,6 +228,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -200,108 +250,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,6 +320,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -326,31 +404,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,139 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,26 +514,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,31 +557,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +569,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,153 +602,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -766,10 +772,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1240,16 +1244,16 @@
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4">
-        <v>230</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="3">
+        <v>230</v>
+      </c>
+      <c r="C9" s="3">
         <v>230</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>4149</v>
       </c>
     </row>
@@ -1266,7 +1270,7 @@
       <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>4150</v>
       </c>
     </row>
@@ -1388,6 +1392,31 @@
       <c r="E17" s="2">
         <v>4158</v>
       </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
